--- a/reports/corpus_1-unigram_bigram-fold-5.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,165 +446,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDO</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -620,106 +560,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>0.4634146341463415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8724489795918368</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9193548387096774</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.75</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9120879120879121</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.92</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.9</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9875886524822695</v>
       </c>
       <c r="P2" t="n">
-        <v>0.75</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.91</v>
       </c>
       <c r="R2" t="n">
-        <v>0.21</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.402247191011236</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1</v>
+        <v>0.7487719298245614</v>
       </c>
       <c r="W2" t="n">
-        <v>0.88</v>
+        <v>0.7326942438127438</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.5847542627883651</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.435849277034263</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.8561853344026542</v>
+        <v>0.8630940999117883</v>
       </c>
     </row>
     <row r="3">
@@ -738,100 +642,64 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9447513812154696</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9764705882352941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.4607113316790736</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1400862068965517</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.9226804123711341</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.7487719298245614</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.8603028414476837</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7941176470588235</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.5847542627883651</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.7615673071845421</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.5847542627883651</v>
+        <v>0.7487719298245614</v>
       </c>
     </row>
     <row r="4">
@@ -844,106 +712,70 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9071618037135278</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9826989619377162</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>0.9431818181818181</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6323529411764706</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6283135927805978</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9579831932773109</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9690721649484536</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.7222222222222221</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.2452830188679246</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3471074380165289</v>
+        <v>0.8297872340425531</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.8968609865470851</v>
       </c>
       <c r="T4" t="n">
-        <v>0.673913043478261</v>
+        <v>0.5602503912363067</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.8085106382978724</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.7487719298245614</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.7624857347342877</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6046511627906977</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.2133333333333333</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.4403669724770642</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.5847542627883651</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.4982191519975107</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.5489392620342824</v>
+        <v>0.7494528338024511</v>
       </c>
     </row>
     <row r="5">
@@ -953,109 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>181</v>
+      </c>
+      <c r="I5" t="n">
+        <v>142</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
       <c r="K5" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>1209</v>
       </c>
       <c r="P5" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="Q5" t="n">
-        <v>464</v>
+        <v>91</v>
       </c>
       <c r="R5" t="n">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="T5" t="n">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.7487719298245614</v>
       </c>
       <c r="W5" t="n">
-        <v>66</v>
+        <v>2850</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.5847542627883651</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>997</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>997</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram-fold-5.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-5.xlsx
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -575,55 +575,55 @@
         <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8724489795918368</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="I2" t="n">
         <v>0.9659863945578231</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9120879120879121</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4886363636363636</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="M2" t="n">
         <v>0.92</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9875886524822695</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3837209302325582</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="T2" t="n">
-        <v>0.402247191011236</v>
+        <v>0.5685393258426966</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7487719298245614</v>
+        <v>0.8143859649122807</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7326942438127438</v>
+        <v>0.8433844850413008</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8630940999117883</v>
+        <v>0.871753271299416</v>
       </c>
     </row>
     <row r="3">
@@ -642,64 +642,64 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9447513812154696</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9764705882352941</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4607113316790736</v>
+        <v>0.5702479338842975</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.953125</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.9724770642201835</v>
       </c>
       <c r="S3" t="n">
-        <v>0.970873786407767</v>
+        <v>0.9316239316239316</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9226804123711341</v>
+        <v>0.8971631205673759</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7487719298245614</v>
+        <v>0.8143859649122807</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8603028414476837</v>
+        <v>0.8731880530854881</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7487719298245614</v>
+        <v>0.8143859649122807</v>
       </c>
     </row>
     <row r="4">
@@ -718,64 +718,64 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9071618037135278</v>
+        <v>0.9214659685863874</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9826989619377162</v>
+        <v>0.9793103448275861</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9431818181818181</v>
+        <v>0.9608938547486033</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.7823343848580443</v>
       </c>
       <c r="M4" t="n">
         <v>0.9583333333333334</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6283135927805978</v>
+        <v>0.7206266318537858</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6321243523316062</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9528795811518325</v>
+        <v>0.9690721649484536</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8297872340425531</v>
+        <v>0.8778467908902691</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8968609865470851</v>
+        <v>0.919831223628692</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5602503912363067</v>
+        <v>0.6960110041265474</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8085106382978724</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7487719298245614</v>
+        <v>0.8143859649122807</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7624857347342877</v>
+        <v>0.8367202176648151</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7494528338024511</v>
+        <v>0.815267964051809</v>
       </c>
     </row>
     <row r="5">
@@ -794,58 +794,58 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I5" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L5" t="n">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="M5" t="n">
         <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O5" t="n">
-        <v>1209</v>
+        <v>968</v>
       </c>
       <c r="P5" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="Q5" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R5" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="S5" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="T5" t="n">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7487719298245614</v>
+        <v>0.8143859649122807</v>
       </c>
       <c r="W5" t="n">
         <v>2850</v>
